--- a/biology/Botanique/Phytorégion_des_Caraïbes/Phytorégion_des_Caraïbes.xlsx
+++ b/biology/Botanique/Phytorégion_des_Caraïbes/Phytorégion_des_Caraïbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phytor%C3%A9gion_des_Cara%C3%AFbes</t>
+          <t>Phytorégion_des_Caraïbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La phytorégion des Caraïbes est une zone regroupant des îles se situant dans la mer des Caraïbes, dans l’océan Atlantique. La surface terrestre totale est de 235 830 km2. On y trouve plus de cent dix îles,  principalement représentées en trois grands groupes : les Bahamas, les Grandes Antilles et les Petites Antilles. On y trouve aussi plus de sept cents îlots. La région est une des trente-cinq phytodivisions définies par Armen Takhtajan dans son ouvrage Floristicheskie oblasti Zemli (en français, « Les régions floristiques du monde »)[1]. Cette phytorégion fait partie du royaume neotropical.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La phytorégion des Caraïbes est une zone regroupant des îles se situant dans la mer des Caraïbes, dans l’océan Atlantique. La surface terrestre totale est de 235 830 km2. On y trouve plus de cent dix îles,  principalement représentées en trois grands groupes : les Bahamas, les Grandes Antilles et les Petites Antilles. On y trouve aussi plus de sept cents îlots. La région est une des trente-cinq phytodivisions définies par Armen Takhtajan dans son ouvrage Floristicheskie oblasti Zemli (en français, « Les régions floristiques du monde »). Cette phytorégion fait partie du royaume neotropical.
 </t>
         </is>
       </c>
